--- a/ex/TestOrder.xlsx
+++ b/ex/TestOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EA9B2-C8E9-4936-9779-E0AC847E47E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5170C76E-5514-4F3F-9393-CB09872BEC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B28C14C4-DB55-46DE-808C-9598A1A4B3F2}"/>
   </bookViews>
@@ -449,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,6 +465,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -505,6 +511,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,7 +904,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +937,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -971,8 +978,8 @@
       <c r="E2" s="3">
         <v>46051</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
+      <c r="F2" s="6">
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>67</v>
@@ -1012,7 +1019,7 @@
       <c r="E3" s="3">
         <v>46051</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1053,8 +1060,8 @@
       <c r="E4" s="3">
         <v>46051</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
+      <c r="F4" s="6">
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>67</v>
@@ -1094,8 +1101,8 @@
       <c r="E5" s="3">
         <v>46051</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
+      <c r="F5" s="6">
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
@@ -1135,7 +1142,7 @@
       <c r="E6" s="3">
         <v>46051</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1176,7 +1183,7 @@
       <c r="E7" s="3">
         <v>46051</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1217,8 +1224,8 @@
       <c r="E8" s="3">
         <v>46051</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
+      <c r="F8" s="6">
+        <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>67</v>
@@ -1258,8 +1265,8 @@
       <c r="E9" s="3">
         <v>46051</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
+      <c r="F9" s="6">
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
@@ -1299,8 +1306,8 @@
       <c r="E10" s="3">
         <v>46051</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
+      <c r="F10" s="6">
+        <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -1340,8 +1347,8 @@
       <c r="E11" s="3">
         <v>46051</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
+      <c r="F11" s="6">
+        <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>21</v>
@@ -1381,7 +1388,7 @@
       <c r="E12" s="3">
         <v>46051</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1422,7 +1429,7 @@
       <c r="E13" s="3">
         <v>46051</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1463,8 +1470,8 @@
       <c r="E14" s="3">
         <v>46051</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
+      <c r="F14" s="6">
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>67</v>
@@ -1504,8 +1511,8 @@
       <c r="E15" s="3">
         <v>46051</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
+      <c r="F15" s="6">
+        <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>67</v>
@@ -1545,7 +1552,7 @@
       <c r="E16" s="3">
         <v>46051</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1586,7 +1593,7 @@
       <c r="E17" s="3">
         <v>46051</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1627,8 +1634,8 @@
       <c r="E18" s="3">
         <v>46051</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
+      <c r="F18" s="6">
+        <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>21</v>
@@ -1668,7 +1675,7 @@
       <c r="E19" s="3">
         <v>46051</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1709,8 +1716,8 @@
       <c r="E20" s="3">
         <v>46051</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
+      <c r="F20" s="6">
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>21</v>
@@ -1750,7 +1757,7 @@
       <c r="E21" s="3">
         <v>46051</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1791,7 +1798,7 @@
       <c r="E22" s="3">
         <v>46051</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1832,8 +1839,8 @@
       <c r="E23" s="3">
         <v>46051</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
+      <c r="F23" s="6">
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>21</v>
@@ -1873,8 +1880,8 @@
       <c r="E24" s="3">
         <v>46051</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
+      <c r="F24" s="6">
+        <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>21</v>
@@ -1914,8 +1921,8 @@
       <c r="E25" s="3">
         <v>46051</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
+      <c r="F25" s="6">
+        <v>41</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>21</v>
@@ -1955,8 +1962,8 @@
       <c r="E26" s="3">
         <v>46051</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
+      <c r="F26" s="6">
+        <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -1996,8 +2003,8 @@
       <c r="E27" s="3">
         <v>46051</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
+      <c r="F27" s="6">
+        <v>86</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
@@ -2037,8 +2044,8 @@
       <c r="E28" s="3">
         <v>46051</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
+      <c r="F28" s="6">
+        <v>85</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>67</v>
@@ -2078,8 +2085,8 @@
       <c r="E29" s="3">
         <v>46051</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
+      <c r="F29" s="6">
+        <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>21</v>
@@ -2119,8 +2126,8 @@
       <c r="E30" s="3">
         <v>46051</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
+      <c r="F30" s="6">
+        <v>47</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>67</v>

--- a/ex/TestOrder.xlsx
+++ b/ex/TestOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5170C76E-5514-4F3F-9393-CB09872BEC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EA80AE-80E5-40B6-B91B-27696E5993C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B28C14C4-DB55-46DE-808C-9598A1A4B3F2}"/>
   </bookViews>
@@ -449,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,12 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -511,7 +505,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -904,7 +897,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +971,7 @@
       <c r="E2" s="3">
         <v>46051</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1019,7 +1012,7 @@
       <c r="E3" s="3">
         <v>46051</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1060,7 +1053,7 @@
       <c r="E4" s="3">
         <v>46051</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1101,7 +1094,7 @@
       <c r="E5" s="3">
         <v>46051</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1142,7 +1135,7 @@
       <c r="E6" s="3">
         <v>46051</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1183,7 +1176,7 @@
       <c r="E7" s="3">
         <v>46051</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1224,7 +1217,7 @@
       <c r="E8" s="3">
         <v>46051</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1265,7 +1258,7 @@
       <c r="E9" s="3">
         <v>46051</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1306,7 +1299,7 @@
       <c r="E10" s="3">
         <v>46051</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1347,7 +1340,7 @@
       <c r="E11" s="3">
         <v>46051</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1388,7 +1381,7 @@
       <c r="E12" s="3">
         <v>46051</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1429,7 +1422,7 @@
       <c r="E13" s="3">
         <v>46051</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1470,7 +1463,7 @@
       <c r="E14" s="3">
         <v>46051</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1511,7 +1504,7 @@
       <c r="E15" s="3">
         <v>46051</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1552,7 +1545,7 @@
       <c r="E16" s="3">
         <v>46051</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1593,7 +1586,7 @@
       <c r="E17" s="3">
         <v>46051</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1634,7 +1627,7 @@
       <c r="E18" s="3">
         <v>46051</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1675,7 +1668,7 @@
       <c r="E19" s="3">
         <v>46051</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1716,7 +1709,7 @@
       <c r="E20" s="3">
         <v>46051</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1757,7 +1750,7 @@
       <c r="E21" s="3">
         <v>46051</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1798,7 +1791,7 @@
       <c r="E22" s="3">
         <v>46051</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1839,7 +1832,7 @@
       <c r="E23" s="3">
         <v>46051</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1880,7 +1873,7 @@
       <c r="E24" s="3">
         <v>46051</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1921,7 +1914,7 @@
       <c r="E25" s="3">
         <v>46051</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>41</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1962,7 +1955,7 @@
       <c r="E26" s="3">
         <v>46051</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2003,7 +1996,7 @@
       <c r="E27" s="3">
         <v>46051</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>86</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -2044,7 +2037,7 @@
       <c r="E28" s="3">
         <v>46051</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>85</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2085,7 +2078,7 @@
       <c r="E29" s="3">
         <v>46051</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2126,7 +2119,7 @@
       <c r="E30" s="3">
         <v>46051</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>47</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2182,15 +2175,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005257A1C43438D5419D3A082C8961659E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbed44db3001106191f8497c6665d89b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="abae5456-feed-4704-ade7-be65738273c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e57d05feff9844251ace9b83539cc13f" ns3:_="">
     <xsd:import namespace="abae5456-feed-4704-ade7-be65738273c5"/>
@@ -2334,6 +2318,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E274B-AA7B-4099-B6DE-4DF00F51946B}">
   <ds:schemaRefs>
@@ -2351,14 +2344,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8566CFD2-36A0-41A0-8E51-6DC861FE055E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3471EC89-8C44-412E-930F-07F8A18DC078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2374,4 +2359,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8566CFD2-36A0-41A0-8E51-6DC861FE055E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ex/TestOrder.xlsx
+++ b/ex/TestOrder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EA80AE-80E5-40B6-B91B-27696E5993C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3BCDD-2F13-4902-9475-D05A18A27A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B28C14C4-DB55-46DE-808C-9598A1A4B3F2}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -505,6 +505,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,7 +898,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +969,10 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F2" s="2">
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -986,7 +987,7 @@
       <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1009,10 +1010,10 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1027,7 +1028,7 @@
       <c r="J3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1050,10 +1051,10 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F4" s="2">
         <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1068,7 +1069,7 @@
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1091,10 +1092,10 @@
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F5" s="2">
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1109,7 +1110,7 @@
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -1132,10 +1133,10 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1150,7 +1151,7 @@
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1173,10 +1174,10 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1191,7 +1192,7 @@
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1214,10 +1215,10 @@
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F8" s="2">
         <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1232,7 +1233,7 @@
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1255,10 +1256,10 @@
       <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F9" s="2">
         <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1273,7 +1274,7 @@
       <c r="J9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="5" t="s">
         <v>112</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -1296,10 +1297,10 @@
       <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F10" s="2">
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1314,7 +1315,7 @@
       <c r="J10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="5" t="s">
         <v>113</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1337,10 +1338,10 @@
       <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F11" s="2">
         <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1355,7 +1356,7 @@
       <c r="J11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="5" t="s">
         <v>114</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1378,10 +1379,10 @@
       <c r="D12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1396,7 +1397,7 @@
       <c r="J12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="5" t="s">
         <v>115</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1419,10 +1420,10 @@
       <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1437,7 +1438,7 @@
       <c r="J13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="5" t="s">
         <v>116</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1460,10 +1461,10 @@
       <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F14" s="2">
         <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1478,7 +1479,7 @@
       <c r="J14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1501,10 +1502,10 @@
       <c r="D15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F15" s="2">
         <v>18</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1519,7 +1520,7 @@
       <c r="J15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="5" t="s">
         <v>117</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -1542,10 +1543,10 @@
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1560,7 +1561,7 @@
       <c r="J16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="5" t="s">
         <v>118</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1583,10 +1584,10 @@
       <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1601,7 +1602,7 @@
       <c r="J17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -1624,10 +1625,10 @@
       <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F18" s="2">
         <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1642,7 +1643,7 @@
       <c r="J18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="5" t="s">
         <v>119</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -1665,10 +1666,10 @@
       <c r="D19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1683,7 +1684,7 @@
       <c r="J19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="5" t="s">
         <v>117</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -1706,10 +1707,10 @@
       <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E20" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F20" s="2">
         <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1724,7 +1725,7 @@
       <c r="J20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -1747,10 +1748,10 @@
       <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1765,7 +1766,7 @@
       <c r="J21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -1788,10 +1789,10 @@
       <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1806,7 +1807,7 @@
       <c r="J22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -1829,10 +1830,10 @@
       <c r="D23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F23" s="2">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1847,7 +1848,7 @@
       <c r="J23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="5" t="s">
         <v>120</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -1870,10 +1871,10 @@
       <c r="D24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E24" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F24" s="2">
         <v>3</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1888,7 +1889,7 @@
       <c r="J24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -1911,10 +1912,10 @@
       <c r="D25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F25" s="2">
         <v>41</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1929,7 +1930,7 @@
       <c r="J25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -1952,10 +1953,10 @@
       <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F26" s="5">
+      <c r="E26" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F26" s="2">
         <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1970,7 +1971,7 @@
       <c r="J26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -1993,10 +1994,10 @@
       <c r="D27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F27" s="2">
         <v>86</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -2011,7 +2012,7 @@
       <c r="J27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -2034,10 +2035,10 @@
       <c r="D28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="E28" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F28" s="2">
         <v>85</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -2052,7 +2053,7 @@
       <c r="J28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -2075,10 +2076,10 @@
       <c r="D29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E29" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F29" s="2">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2093,7 +2094,7 @@
       <c r="J29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="5" t="s">
         <v>112</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -2116,10 +2117,10 @@
       <c r="D30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="3">
-        <v>46051</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E30" s="6">
+        <v>46051</v>
+      </c>
+      <c r="F30" s="2">
         <v>47</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2134,7 +2135,7 @@
       <c r="J30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="5" t="s">
         <v>113</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -2169,9 +2170,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2319,26 +2323,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E274B-AA7B-4099-B6DE-4DF00F51946B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8566CFD2-36A0-41A0-8E51-6DC861FE055E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="abae5456-feed-4704-ade7-be65738273c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2362,9 +2355,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8566CFD2-36A0-41A0-8E51-6DC861FE055E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E274B-AA7B-4099-B6DE-4DF00F51946B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="abae5456-feed-4704-ade7-be65738273c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ex/TestOrder.xlsx
+++ b/ex/TestOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C3BCDD-2F13-4902-9475-D05A18A27A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B9690-54B8-47A9-85FA-59E9B1127463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B28C14C4-DB55-46DE-808C-9598A1A4B3F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B28C14C4-DB55-46DE-808C-9598A1A4B3F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEC0529-BD5B-4D57-98A0-B1B7D5C0C184}">
   <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2158,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A25CF27-99AE-49F8-99EA-620558DDAFA3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -2170,15 +2170,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005257A1C43438D5419D3A082C8961659E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dbed44db3001106191f8497c6665d89b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="abae5456-feed-4704-ade7-be65738273c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e57d05feff9844251ace9b83539cc13f" ns3:_="">
     <xsd:import namespace="abae5456-feed-4704-ade7-be65738273c5"/>
@@ -2322,21 +2313,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8566CFD2-36A0-41A0-8E51-6DC861FE055E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3471EC89-8C44-412E-930F-07F8A18DC078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2354,7 +2346,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{498E274B-AA7B-4099-B6DE-4DF00F51946B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="abae5456-feed-4704-ade7-be65738273c5"/>
@@ -2368,4 +2360,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8566CFD2-36A0-41A0-8E51-6DC861FE055E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>